--- a/Planificacion del Modulo/Planificacion DB M3.xlsx
+++ b/Planificacion del Modulo/Planificacion DB M3.xlsx
@@ -11,24 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Usuarios</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>Nombre y Apellido</t>
   </si>
   <si>
+    <t>Mail</t>
+  </si>
+  <si>
     <t>Fecha de Nacimiento</t>
   </si>
   <si>
-    <t>Mail</t>
-  </si>
-  <si>
     <t>Dni</t>
   </si>
   <si>
-    <t>Id</t>
+    <t>CredentialID</t>
   </si>
   <si>
     <t>EJ:</t>
@@ -49,9 +52,6 @@
     <t>Contrasenia</t>
   </si>
   <si>
-    <t>UserId</t>
-  </si>
-  <si>
     <t>Franco</t>
   </si>
   <si>
@@ -67,7 +67,7 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>TurnoID</t>
+    <t>userID</t>
   </si>
   <si>
     <t>ACTIVO</t>
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -92,7 +92,6 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -122,9 +121,9 @@
   <borders count="5">
     <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -133,6 +132,9 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -141,9 +143,6 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -169,31 +168,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="20" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -412,138 +412,147 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.63"/>
+    <col customWidth="1" min="1" max="1" width="12.75"/>
+    <col customWidth="1" min="2" max="2" width="2.38"/>
     <col customWidth="1" min="3" max="3" width="16.75"/>
     <col customWidth="1" min="4" max="4" width="13.25"/>
-    <col customWidth="1" min="5" max="5" width="10.25"/>
-    <col customWidth="1" min="6" max="6" width="4.38"/>
+    <col customWidth="1" min="5" max="5" width="16.75"/>
+    <col customWidth="1" min="6" max="6" width="10.25"/>
+    <col customWidth="1" min="7" max="7" width="10.0"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="B4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7">
         <v>39060.0</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="F4" s="6">
         <v>1.23456789E9</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="6">
         <v>912000.0</v>
       </c>
-      <c r="D8" s="7">
+    </row>
+    <row r="10">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="C12" s="7">
         <v>45789.0</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D12" s="8">
         <v>0.5833333333333334</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="6">
         <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B10:E10"/>
-  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>